--- a/Proto77-Map/171111/조선 프로빈스 네임.xlsx
+++ b/Proto77-Map/171111/조선 프로빈스 네임.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto7\Documents\github\euro4\Proto77-Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto7\Documents\github\euro4\Proto77-Map\171111\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -295,15 +295,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -316,6 +313,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,37 +636,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H2">
@@ -671,20 +674,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="1"/>
@@ -696,98 +699,98 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="H8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H10">
@@ -798,20 +801,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1"/>
@@ -870,7 +873,7 @@
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -898,7 +901,7 @@
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -906,13 +909,13 @@
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -920,13 +923,13 @@
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -934,7 +937,7 @@
       <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
